--- a/data/trans_camb/P1423-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.1527944899827612</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.055926727167336</v>
+        <v>3.055926727167337</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.263846913916791</v>
@@ -664,7 +664,7 @@
         <v>0.2531665289713728</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.744593110706901</v>
+        <v>2.7445931107069</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.361288639164483</v>
+        <v>-1.492958008134369</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.621224042631384</v>
+        <v>-1.642956998463084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04372672189994799</v>
+        <v>-0.0971240014984419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.791843944248123</v>
+        <v>-3.697778972617899</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.415315368315654</v>
+        <v>-3.76479951294317</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.6605342268829769</v>
+        <v>-0.3473405946354008</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.553787750404348</v>
+        <v>-1.680854313263613</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.644888565727234</v>
+        <v>-1.608408898430607</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8424804596754307</v>
+        <v>0.8113689998447945</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.863376823152212</v>
+        <v>2.805501330639344</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.443803717784845</v>
+        <v>2.422355706052254</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.462591153973501</v>
+        <v>4.251331840275604</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.251763715503956</v>
+        <v>3.648328496232504</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.82097603058643</v>
+        <v>3.410271941227575</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.280284462455961</v>
+        <v>5.960389278227866</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.388737521324258</v>
+        <v>2.217613804947772</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.296066988492385</v>
+        <v>2.156178691475918</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.580311655172382</v>
+        <v>4.734947323069908</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.03018805558486196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6037684075741284</v>
+        <v>0.6037684075741288</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.0786296895774682</v>
@@ -769,7 +769,7 @@
         <v>0.07544680090782489</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.8179231703251981</v>
+        <v>0.817923170325198</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5002062484374012</v>
+        <v>-0.5201686487211942</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5898256344979658</v>
+        <v>-0.5705618053929912</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07131544930564961</v>
+        <v>-0.08982646415284554</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5828260410612986</v>
+        <v>-0.559962494066937</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5058889892076553</v>
+        <v>-0.5517252091051233</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1141901717450249</v>
+        <v>-0.08377844927733158</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3863861438174114</v>
+        <v>-0.3998303085183601</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4056699434588788</v>
+        <v>-0.4034785619025333</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.176452695672924</v>
+        <v>0.1334655521645122</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.994451338462383</v>
+        <v>2.070721645542897</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.930541780754109</v>
+        <v>1.721580462095092</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.285031869863803</v>
+        <v>3.178706411982044</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.00195541282656</v>
+        <v>1.102008317638175</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.219766390731367</v>
+        <v>1.058026722850798</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.899236784853557</v>
+        <v>1.796709520214129</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9826471848017608</v>
+        <v>0.928194145278069</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9351801253016012</v>
+        <v>0.8542532800198501</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.810176618823748</v>
+        <v>1.868209383357011</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-1.629274540313912</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.982668399004594</v>
+        <v>3.982668399004595</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.191477518122872</v>
@@ -878,7 +878,7 @@
         <v>-0.8051848252503629</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.690574980464965</v>
+        <v>3.690574980464966</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.380476585805564</v>
+        <v>-1.22657326482652</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.022820091824784</v>
+        <v>-2.147124241356892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.072544754450233</v>
+        <v>1.033607787787729</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.29155789843501</v>
+        <v>-3.992187269925526</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.877038327206768</v>
+        <v>-4.777004213134397</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1023996014552988</v>
+        <v>0.6273927637861434</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.000405822552841</v>
+        <v>-1.86722482751169</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.781052247801301</v>
+        <v>-2.860865254005177</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.284211828892221</v>
+        <v>1.528037907526298</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.46823143543135</v>
+        <v>3.633860361370092</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.182812513109845</v>
+        <v>2.329745172107436</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.465800064861117</v>
+        <v>6.36597987681657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.880631650162359</v>
+        <v>3.143853132738676</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.970687146923593</v>
+        <v>2.039356872764359</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.424927945994794</v>
+        <v>7.501824111633315</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.22405536843641</v>
+        <v>2.440254834697739</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.202566607749702</v>
+        <v>1.188832288343717</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.821358839420741</v>
+        <v>5.920512557997887</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2742080574745144</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6702859083809003</v>
+        <v>0.6702859083809005</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.04691636591026175</v>
@@ -983,7 +983,7 @@
         <v>-0.1972886752302426</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9042751749667096</v>
+        <v>0.9042751749667099</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4776979943014644</v>
+        <v>-0.470512532447408</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6824478869627317</v>
+        <v>-0.6689613627767379</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2237663342245453</v>
+        <v>0.2011958917848166</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4443497435797872</v>
+        <v>-0.5100582210935523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6294139882242547</v>
+        <v>-0.6317944903096016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0203328480277485</v>
+        <v>0.02749844352999102</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3943130631230629</v>
+        <v>-0.3644969535049191</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5453044992717684</v>
+        <v>-0.5588569654718615</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2207391910647658</v>
+        <v>0.2727418207716301</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.166123627270638</v>
+        <v>3.342449065474979</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.307827546419056</v>
+        <v>2.489517591002758</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.803942717209628</v>
+        <v>5.499854433036976</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8601457518978801</v>
+        <v>0.733670512882774</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5337639613340913</v>
+        <v>0.5180218068896466</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.837091737510269</v>
+        <v>1.790317741447213</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7189867221891161</v>
+        <v>0.8176608255589325</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3834066559091014</v>
+        <v>0.3937335747773557</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.978632154633879</v>
+        <v>1.924718447691601</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.3411055284621483</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.590360845469887</v>
+        <v>3.590360845469886</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.091721179112226</v>
@@ -1092,7 +1092,7 @@
         <v>1.04829734576407</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.639560332175209</v>
+        <v>3.639560332175208</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4527842512013617</v>
+        <v>0.3192110878910852</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.890194574291067</v>
+        <v>-2.241756466363045</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9321743862501435</v>
+        <v>0.7592135256942806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.579962856472247</v>
+        <v>-2.682497222321506</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.619581060979737</v>
+        <v>-4.138161126218042</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.811684102059036</v>
+        <v>-4.158348803655323</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9872527644601959</v>
+        <v>0.9614557227435575</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.631773178773956</v>
+        <v>-1.443569301007553</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.198015044134237</v>
+        <v>1.079449481480677</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.62084101924053</v>
+        <v>5.562054025095692</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.752454973048017</v>
+        <v>2.531771313704031</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.55213308012774</v>
+        <v>6.799540830567357</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.37549667605036</v>
+        <v>10.12247646103272</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.3872362798173</v>
+        <v>10.34879213028879</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.382157132289004</v>
+        <v>8.665560205621702</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.092199084128918</v>
+        <v>6.234711869120231</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.591278533082019</v>
+        <v>3.708395032563859</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.129304692260514</v>
+        <v>6.236764999269219</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.09277516723152719</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.9765198745436315</v>
+        <v>0.9765198745436312</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3901187873464462</v>
@@ -1197,7 +1197,7 @@
         <v>0.1983160116250812</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6885289675323553</v>
+        <v>0.6885289675323549</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.03787399518685634</v>
+        <v>0.04960785090926663</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.398768946464796</v>
+        <v>-0.4520779364172632</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1589204446737184</v>
+        <v>0.1134302128150071</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2052620534867299</v>
+        <v>-0.212176081525378</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3501170412035505</v>
+        <v>-0.3063184458791555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.280746990425308</v>
+        <v>-0.2974692907069068</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1370683190246322</v>
+        <v>0.1365285326226306</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2606756454485944</v>
+        <v>-0.2271958884846457</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.17530781186248</v>
+        <v>0.1495685769622058</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.175862069102198</v>
+        <v>2.109123997829115</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.165331117815841</v>
+        <v>0.9136419842215822</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.461102461314517</v>
+        <v>2.53255655710894</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.496874868537594</v>
+        <v>1.450337604315231</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.433848527639737</v>
+        <v>1.424974395205644</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.306066579589081</v>
+        <v>1.321691031502527</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.468482653073014</v>
+        <v>1.524645477390888</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8135156969988599</v>
+        <v>0.9629423265596623</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.481919411118492</v>
+        <v>1.528361477693147</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.6807578887262535</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.506820183359739</v>
+        <v>3.506820183359741</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.09675663126996673</v>
+        <v>0.02086875831788013</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.142364077630249</v>
+        <v>-1.060082256958328</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.277505029205077</v>
+        <v>1.168878799105973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4999382996075796</v>
+        <v>-0.08083127143584831</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.324440701822321</v>
+        <v>-2.302450302540878</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4833438550297673</v>
+        <v>0.9180478486109777</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4056998579359</v>
+        <v>0.6578193948232957</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8647997715898877</v>
+        <v>-0.6796910710714622</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.081848419442676</v>
+        <v>2.084026760181437</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.243315537843919</v>
+        <v>3.22441496429109</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.885984342948118</v>
+        <v>1.877033840415088</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.465666854687976</v>
+        <v>4.528500760315507</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.43687511883374</v>
+        <v>5.818809433640369</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.261919453865649</v>
+        <v>3.448577797355299</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.12380736240679</v>
+        <v>6.345740100330996</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.735603010573744</v>
+        <v>4.036188965469976</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.134367005048774</v>
+        <v>2.113823896099229</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.95285821509592</v>
+        <v>5.075893844809952</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1375041441965797</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7083315759533957</v>
+        <v>0.7083315759533962</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03323173486264995</v>
+        <v>-0.01006569483616543</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3035245073772564</v>
+        <v>-0.2845917315931627</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.303785012288981</v>
+        <v>0.2751972840862919</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05312093477968875</v>
+        <v>-0.009004310003649209</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2382024969847049</v>
+        <v>-0.2414335725084898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03778980525662137</v>
+        <v>0.08584926455444702</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06834288198632844</v>
+        <v>0.1109543985003196</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1626956310518579</v>
+        <v>-0.1218031637155715</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3641600497023497</v>
+        <v>0.3601783141136571</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.279850464574909</v>
+        <v>1.283568475525862</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7392012058433717</v>
+        <v>0.7331574352251896</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.760428731584507</v>
+        <v>1.676771739204374</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8154591833595772</v>
+        <v>0.9036693412481067</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5190630520662999</v>
+        <v>0.5412641251643755</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9435957634440327</v>
+        <v>0.9465958175582003</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8835873889608169</v>
+        <v>0.9438481643823833</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4905127982209766</v>
+        <v>0.480152567587543</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.185078074590307</v>
+        <v>1.177782133950636</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.4912922922003432</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.103324701544956</v>
+        <v>2.103324701544954</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>5.702491077642994</v>
@@ -1520,7 +1520,7 @@
         <v>2.620655040824849</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.174173760793659</v>
+        <v>5.174173760793656</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.179345540112198</v>
+        <v>-4.096080407268973</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.415548504619912</v>
+        <v>-3.605900418973239</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8266047661028885</v>
+        <v>-0.9234538356426887</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.904575529567923</v>
+        <v>1.730294673047215</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.847653038204542</v>
+        <v>1.884950417511688</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.335596843673061</v>
+        <v>4.119172969274978</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2918209276791138</v>
+        <v>0.3609412509045592</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3616901572572316</v>
+        <v>0.2136368944238941</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.802711935239551</v>
+        <v>2.803060233636437</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.319155517328083</v>
+        <v>1.345199299120302</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.358852205841211</v>
+        <v>2.168013304772509</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.289278505789476</v>
+        <v>5.343660494354011</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.082470680663508</v>
+        <v>9.101107301611524</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.461565941247102</v>
+        <v>9.669942042046396</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.60488412990833</v>
+        <v>10.48863510224166</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.116164208435126</v>
+        <v>5.13071223543959</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.973541444759479</v>
+        <v>4.806702994730735</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.675106587239997</v>
+        <v>7.606862456521984</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1050711053049611</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4498313014779299</v>
+        <v>0.4498313014779296</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6184232491260214</v>
@@ -1625,7 +1625,7 @@
         <v>0.3499894058856635</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.691012732419518</v>
+        <v>0.6910127324195176</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6396146060610562</v>
+        <v>-0.6255217515932994</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5035417491394414</v>
+        <v>-0.5418530752941074</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1646860277791943</v>
+        <v>-0.1702802509160052</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1621048323046872</v>
+        <v>0.1464428874847383</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1710037468903982</v>
+        <v>0.1466949135201662</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3656904344639503</v>
+        <v>0.3557963539019971</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03271124349231942</v>
+        <v>0.03069457141217123</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.03929139742758964</v>
+        <v>0.02522157191888998</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.323534672693679</v>
+        <v>0.3194649378038427</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4655969143084792</v>
+        <v>0.4542320660970124</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9468460803870243</v>
+        <v>0.6896631387151023</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.979220484954085</v>
+        <v>1.758615068611637</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.219802095106572</v>
+        <v>1.253432075664557</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.283723276992588</v>
+        <v>1.273678022763678</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.388110592301027</v>
+        <v>1.411824452631274</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.874070470634022</v>
+        <v>0.8334277846048634</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8109055794777352</v>
+        <v>0.8080406668930393</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.252838871638458</v>
+        <v>1.254617859973684</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.094890988738446</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.927395218462961</v>
+        <v>4.927395218462964</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.721664254657608</v>
@@ -1734,7 +1734,7 @@
         <v>2.93826746202356</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.589484473864566</v>
+        <v>4.589484473864568</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.134921410641698</v>
+        <v>-4.35201459787506</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.291029882433257</v>
+        <v>-3.465081141034997</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.5581294278488794</v>
+        <v>-0.06104761129681281</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.689131413449201</v>
+        <v>2.393646702360193</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.723127380134157</v>
+        <v>1.701503993391669</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.335081546772066</v>
+        <v>2.684784253466373</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.643401570362429</v>
+        <v>1.438567170974528</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.9252003551128491</v>
+        <v>1.049500593516565</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.41833725492803</v>
+        <v>2.355316327206486</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.06808980602584862</v>
+        <v>-0.1445647168157171</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.125644297325495</v>
+        <v>1.075817152047782</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.17372151779434</v>
+        <v>9.207262930067257</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.802046847864602</v>
+        <v>7.427080720451146</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.537748648630756</v>
+        <v>6.799045383897011</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.617079918118853</v>
+        <v>7.461525872698862</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.137237895072123</v>
+        <v>5.606464548554828</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.972085316037158</v>
+        <v>4.962109150081277</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.926911935179617</v>
+        <v>6.746811176214515</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.5632170475551166</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6777208464674878</v>
+        <v>0.6777208464674882</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5872654684559756</v>
@@ -1839,7 +1839,7 @@
         <v>0.4636482228010558</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.7242044325042057</v>
+        <v>0.724204432504206</v>
       </c>
     </row>
     <row r="38">
@@ -1853,28 +1853,28 @@
         <v>-1</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8914256370422914</v>
+        <v>-0.8956841310594374</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.0425850004387248</v>
+        <v>-0.1632867116501191</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2880149629735649</v>
+        <v>0.2862145975615151</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1989372568253819</v>
+        <v>0.2119663865254522</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2781766891792924</v>
+        <v>0.3299393944861395</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2140075751239223</v>
+        <v>0.1926658303412306</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.124344334863667</v>
+        <v>0.125646700957929</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3403578196204317</v>
+        <v>0.313833107647292</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.6662288583076927</v>
+        <v>0.4271743331300351</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.219883055667284</v>
+        <v>1.339217828552214</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6.841206628114957</v>
+        <v>6.983999222649115</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.217094209116084</v>
+        <v>1.206794319664193</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.041613123240864</v>
+        <v>1.083180553345267</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.217659713014848</v>
+        <v>1.177209201038684</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.085957804590837</v>
+        <v>1.029112988931239</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.880229378865182</v>
+        <v>0.8698583307024685</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.305346117382296</v>
+        <v>1.200228437472536</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>2.647931383034389</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.744508213691456</v>
+        <v>4.744508213691458</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>2.462676972348024</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.01053887157739028</v>
+        <v>0.1900253839249566</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.7143060142835381</v>
+        <v>-0.602748848604325</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.904552873944572</v>
+        <v>1.929101851764403</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.415465746993921</v>
+        <v>2.439852059044449</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.166666175418772</v>
+        <v>1.302743298433213</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.424873507431994</v>
+        <v>3.412528957444104</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.536869445574772</v>
+        <v>1.58218178934958</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.6335509779346468</v>
+        <v>0.6205615982502612</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.121710543771285</v>
+        <v>3.117143911770726</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.874257928423655</v>
+        <v>2.016192306161569</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.033141375562068</v>
+        <v>1.014606373436252</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.960142409421144</v>
+        <v>3.943981715279055</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.118565052253929</v>
+        <v>5.116899847660035</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.014695218686586</v>
+        <v>4.102130009187842</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.033071351462025</v>
+        <v>6.104420277880602</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.366156500150933</v>
+        <v>3.341386830820475</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.239578696113319</v>
+        <v>2.219267815110649</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.729506252036201</v>
+        <v>4.801647168065954</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.3493493617821996</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6259568986731511</v>
+        <v>0.6259568986731513</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4580756906236481</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.002994374514182478</v>
+        <v>0.05596022105084464</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1996031416031526</v>
+        <v>-0.1767863690452583</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5649536749942112</v>
+        <v>0.5548675993634171</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2995581931223806</v>
+        <v>0.2855421990977693</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1456541621788386</v>
+        <v>0.1532712880907458</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4097234219310745</v>
+        <v>0.3923039607589057</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2594845085439053</v>
+        <v>0.2716007419128736</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.110914209165613</v>
+        <v>0.1084556803712538</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.530330537375419</v>
+        <v>0.5297811186619977</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6952763384624975</v>
+        <v>0.7231617258603837</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3791927525373328</v>
+        <v>0.3769479661377613</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.505330862606958</v>
+        <v>1.450858379597797</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7511543224233538</v>
+        <v>0.7360242426746282</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5728986797638804</v>
+        <v>0.5996330050038284</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8774446837733537</v>
+        <v>0.8661437079235808</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6694064111387935</v>
+        <v>0.6550461315685772</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4465336078005864</v>
+        <v>0.4462317911550923</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.9363683896685305</v>
+        <v>0.9631150760539867</v>
       </c>
     </row>
     <row r="46">
